--- a/Code/Results/Cases/Case_6_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.612080899840066</v>
+        <v>2.612080899840009</v>
       </c>
       <c r="C2">
-        <v>0.4363717429110352</v>
+        <v>0.4363717429098131</v>
       </c>
       <c r="D2">
-        <v>0.3901050995734039</v>
+        <v>0.3901050995736455</v>
       </c>
       <c r="E2">
-        <v>0.03724914421915915</v>
+        <v>0.03724914421922398</v>
       </c>
       <c r="F2">
-        <v>6.695904829511278</v>
+        <v>6.69590482951125</v>
       </c>
       <c r="G2">
-        <v>0.000813880519884246</v>
+        <v>0.0008138805198904798</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1481602075847519</v>
+        <v>0.1481602075847448</v>
       </c>
       <c r="M2">
         <v>0.4326980422203164</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261558315376362</v>
+        <v>2.261558315376703</v>
       </c>
       <c r="C3">
-        <v>0.3745524852385813</v>
+        <v>0.3745524852392919</v>
       </c>
       <c r="D3">
-        <v>0.3543091024112499</v>
+        <v>0.3543091024112215</v>
       </c>
       <c r="E3">
-        <v>0.03581014754305745</v>
+        <v>0.03581014754310274</v>
       </c>
       <c r="F3">
-        <v>5.94635928568664</v>
+        <v>5.946359285686668</v>
       </c>
       <c r="G3">
-        <v>0.0008254478833732787</v>
+        <v>0.000825447883275876</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1341848126715277</v>
+        <v>0.1341848126714922</v>
       </c>
       <c r="M3">
-        <v>0.3777198032428331</v>
+        <v>0.3777198032428117</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052985199828413</v>
+        <v>2.052985199828584</v>
       </c>
       <c r="C4">
-        <v>0.337558767303392</v>
+        <v>0.3375587673027951</v>
       </c>
       <c r="D4">
-        <v>0.3328678707435557</v>
+        <v>0.3328678707429447</v>
       </c>
       <c r="E4">
-        <v>0.03494548426083388</v>
+        <v>0.03494548426085653</v>
       </c>
       <c r="F4">
         <v>5.497898965547677</v>
       </c>
       <c r="G4">
-        <v>0.0008326936803781103</v>
+        <v>0.0008326936805369181</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1258962823120413</v>
+        <v>0.1258962823121408</v>
       </c>
       <c r="M4">
-        <v>0.3450291067272389</v>
+        <v>0.3450291067272246</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0.322682825540511</v>
       </c>
       <c r="D5">
-        <v>0.3242438055207515</v>
+        <v>0.3242438055202967</v>
       </c>
       <c r="E5">
-        <v>0.03459645773454545</v>
+        <v>0.03459645773450482</v>
       </c>
       <c r="F5">
-        <v>5.317679998899564</v>
+        <v>5.317679998899592</v>
       </c>
       <c r="G5">
-        <v>0.000835685925596103</v>
+        <v>0.0008356859256484217</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1225843566804343</v>
+        <v>0.1225843566806049</v>
       </c>
       <c r="M5">
-        <v>0.3319424958382911</v>
+        <v>0.3319424958382768</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.955657243357507</v>
+        <v>1.955657243357678</v>
       </c>
       <c r="C6">
-        <v>0.3202235608344211</v>
+        <v>0.3202235608344495</v>
       </c>
       <c r="D6">
         <v>0.3228180418518747</v>
       </c>
       <c r="E6">
-        <v>0.03453866520780258</v>
+        <v>0.0345386652077857</v>
       </c>
       <c r="F6">
-        <v>5.287896114066712</v>
+        <v>5.287896114066683</v>
       </c>
       <c r="G6">
-        <v>0.0008361852674588373</v>
+        <v>0.0008361852674628717</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1220381699909225</v>
+        <v>0.1220381699911002</v>
       </c>
       <c r="M6">
-        <v>0.3297827775681696</v>
+        <v>0.3297827775681625</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.051852938850971</v>
+        <v>2.051852938851084</v>
       </c>
       <c r="C7">
-        <v>0.3373573914035433</v>
+        <v>0.3373573914039412</v>
       </c>
       <c r="D7">
-        <v>0.3327511315261091</v>
+        <v>0.3327511315259812</v>
       </c>
       <c r="E7">
-        <v>0.03494076542606828</v>
+        <v>0.03494076542607383</v>
       </c>
       <c r="F7">
-        <v>5.495458746801802</v>
+        <v>5.495458746801745</v>
       </c>
       <c r="G7">
-        <v>0.0008327338704567322</v>
+        <v>0.000832733870525374</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1258513601739537</v>
+        <v>0.1258513601739608</v>
       </c>
       <c r="M7">
-        <v>0.3448517051421547</v>
+        <v>0.344851705142176</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.48970320008948</v>
+        <v>2.489703200089309</v>
       </c>
       <c r="C8">
-        <v>0.4148289377797596</v>
+        <v>0.4148289377791343</v>
       </c>
       <c r="D8">
-        <v>0.3776371766556252</v>
+        <v>0.3776371766556537</v>
       </c>
       <c r="E8">
-        <v>0.0367481450990903</v>
+        <v>0.03674814509908164</v>
       </c>
       <c r="F8">
-        <v>6.434748770674048</v>
+        <v>6.434748770674105</v>
       </c>
       <c r="G8">
-        <v>0.0008178413923380831</v>
+        <v>0.0008178413922765767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1432758277197479</v>
+        <v>0.1432758277198332</v>
       </c>
       <c r="M8">
-        <v>0.4134992194759661</v>
+        <v>0.4134992194759803</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.412289218835781</v>
+        <v>3.41228921883561</v>
       </c>
       <c r="C9">
-        <v>0.5766509037066783</v>
+        <v>0.5766509037062235</v>
       </c>
       <c r="D9">
-        <v>0.4710507432646551</v>
+        <v>0.4710507432647972</v>
       </c>
       <c r="E9">
-        <v>0.04051762702150841</v>
+        <v>0.04051762702148931</v>
       </c>
       <c r="F9">
-        <v>8.392057538441492</v>
+        <v>8.392057538441549</v>
       </c>
       <c r="G9">
-        <v>0.000789596119719459</v>
+        <v>0.000789596119937238</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1801686320972635</v>
+        <v>0.1801686320972706</v>
       </c>
       <c r="M9">
-        <v>0.5582895922610476</v>
+        <v>0.5582895922610902</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.147551925839821</v>
+        <v>4.14755192583965</v>
       </c>
       <c r="C10">
-        <v>0.7053271606584133</v>
+        <v>0.7053271606582996</v>
       </c>
       <c r="D10">
-        <v>0.544809885028485</v>
+        <v>0.5448098850288261</v>
       </c>
       <c r="E10">
-        <v>0.04355178431064921</v>
+        <v>0.04355178431073181</v>
       </c>
       <c r="F10">
-        <v>9.936432790076026</v>
+        <v>9.936432790076111</v>
       </c>
       <c r="G10">
-        <v>0.0007691369831422342</v>
+        <v>0.0007691369828938393</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2095911257194274</v>
+        <v>0.2095911257195553</v>
       </c>
       <c r="M10">
-        <v>0.6736826801489926</v>
+        <v>0.6736826801490068</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.499646705309829</v>
+        <v>4.499646705310113</v>
       </c>
       <c r="C11">
-        <v>0.7670489340419806</v>
+        <v>0.7670489340419522</v>
       </c>
       <c r="D11">
-        <v>0.5799866022356355</v>
+        <v>0.5799866022350102</v>
       </c>
       <c r="E11">
-        <v>0.04502642044390148</v>
+        <v>0.04502642044390992</v>
       </c>
       <c r="F11">
-        <v>10.67203440234294</v>
+        <v>10.67203440234312</v>
       </c>
       <c r="G11">
-        <v>0.0007598128137840716</v>
+        <v>0.0007598128135114128</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2236595262755259</v>
+        <v>0.223659526275668</v>
       </c>
       <c r="M11">
-        <v>0.7289161094329302</v>
+        <v>0.7289161094329657</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.636041014088391</v>
+        <v>4.636041014088335</v>
       </c>
       <c r="C12">
-        <v>0.7909906211617397</v>
+        <v>0.7909906211627344</v>
       </c>
       <c r="D12">
-        <v>0.5935928649914217</v>
+        <v>0.5935928649916207</v>
       </c>
       <c r="E12">
-        <v>0.0456023458238195</v>
+        <v>0.04560234582387279</v>
       </c>
       <c r="F12">
-        <v>10.95636269491547</v>
+        <v>10.95636269491558</v>
       </c>
       <c r="G12">
-        <v>0.0007562712740354071</v>
+        <v>0.0007562712740328802</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2291036238759006</v>
+        <v>0.2291036238757442</v>
       </c>
       <c r="M12">
-        <v>0.7503062344919371</v>
+        <v>0.7503062344919513</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.606520221370261</v>
+        <v>4.606520221370431</v>
       </c>
       <c r="C13">
-        <v>0.7858070279280014</v>
+        <v>0.785807027927973</v>
       </c>
       <c r="D13">
-        <v>0.5906488699323234</v>
+        <v>0.5906488699325791</v>
       </c>
       <c r="E13">
-        <v>0.04547745864395791</v>
+        <v>0.04547745864384778</v>
       </c>
       <c r="F13">
         <v>10.89485245352199</v>
       </c>
       <c r="G13">
-        <v>0.0007570346310141814</v>
+        <v>0.0007570346307688932</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2279256203071327</v>
+        <v>0.2279256203072322</v>
       </c>
       <c r="M13">
-        <v>0.745676937795487</v>
+        <v>0.7456769377955013</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.510803134393598</v>
+        <v>4.510803134393427</v>
       </c>
       <c r="C14">
-        <v>0.7690065097584409</v>
+        <v>0.7690065097579009</v>
       </c>
       <c r="D14">
-        <v>0.5810999386370952</v>
+        <v>0.5810999386372089</v>
       </c>
       <c r="E14">
-        <v>0.04507342541633585</v>
+        <v>0.04507342541630832</v>
       </c>
       <c r="F14">
-        <v>10.69530404706023</v>
+        <v>10.6953040470604</v>
       </c>
       <c r="G14">
-        <v>0.0007595217158770431</v>
+        <v>0.0007595217159743008</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2241049592048086</v>
+        <v>0.2241049592048796</v>
       </c>
       <c r="M14">
-        <v>0.7306658630634857</v>
+        <v>0.7306658630634786</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.452590149311789</v>
+        <v>4.452590149311504</v>
       </c>
       <c r="C15">
-        <v>0.7587934895290687</v>
+        <v>0.7587934895300634</v>
       </c>
       <c r="D15">
-        <v>0.5752898568784701</v>
+        <v>0.5752898568784133</v>
       </c>
       <c r="E15">
-        <v>0.04482835619321301</v>
+        <v>0.04482835619326098</v>
       </c>
       <c r="F15">
         <v>10.57386012327953</v>
       </c>
       <c r="G15">
-        <v>0.0007610434658435041</v>
+        <v>0.0007610434657176048</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2217804947101882</v>
+        <v>0.2217804947101598</v>
       </c>
       <c r="M15">
         <v>0.7215355826179604</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.124939258026814</v>
+        <v>4.124939258026984</v>
       </c>
       <c r="C16">
-        <v>0.7013665784804175</v>
+        <v>0.7013665784809007</v>
       </c>
       <c r="D16">
         <v>0.5425479072664814</v>
       </c>
       <c r="E16">
-        <v>0.0434576299405256</v>
+        <v>0.04345762994058866</v>
       </c>
       <c r="F16">
-        <v>9.889107437057703</v>
+        <v>9.889107437057788</v>
       </c>
       <c r="G16">
-        <v>0.0007697453266109881</v>
+        <v>0.0007697453264909122</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2086869785613601</v>
+        <v>0.2086869785614738</v>
       </c>
       <c r="M16">
-        <v>0.6701347144387526</v>
+        <v>0.6701347144387242</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928794951515329</v>
+        <v>3.928794951515158</v>
       </c>
       <c r="C17">
-        <v>0.667025122941368</v>
+        <v>0.6670251229408848</v>
       </c>
       <c r="D17">
-        <v>0.5229116854729625</v>
+        <v>0.522911685472792</v>
       </c>
       <c r="E17">
-        <v>0.04264344904888162</v>
+        <v>0.04264344904885808</v>
       </c>
       <c r="F17">
-        <v>9.478167156994061</v>
+        <v>9.478167156994147</v>
       </c>
       <c r="G17">
-        <v>0.0007750738602445183</v>
+        <v>0.0007750738603562975</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2008417452646967</v>
+        <v>0.2008417452647393</v>
       </c>
       <c r="M17">
-        <v>0.6393563711545696</v>
+        <v>0.639356371154598</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817599353693026</v>
+        <v>3.817599353692628</v>
       </c>
       <c r="C18">
-        <v>0.6475649316749923</v>
+        <v>0.647564931674026</v>
       </c>
       <c r="D18">
-        <v>0.5117666064101343</v>
+        <v>0.5117666064097079</v>
       </c>
       <c r="E18">
-        <v>0.04218375696485532</v>
+        <v>0.04218375696491172</v>
       </c>
       <c r="F18">
         <v>9.244845751334339</v>
       </c>
       <c r="G18">
-        <v>0.0007781376440532919</v>
+        <v>0.0007781376441699126</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1963924779513349</v>
+        <v>0.1963924779514628</v>
       </c>
       <c r="M18">
-        <v>0.6219058234122414</v>
+        <v>0.6219058234122627</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780214386744774</v>
+        <v>3.780214386745058</v>
       </c>
       <c r="C19">
-        <v>0.6410231944256566</v>
+        <v>0.6410231944261398</v>
       </c>
       <c r="D19">
-        <v>0.5080172577779081</v>
+        <v>0.5080172577771975</v>
       </c>
       <c r="E19">
-        <v>0.04202948433102272</v>
+        <v>0.04202948433095655</v>
       </c>
       <c r="F19">
-        <v>9.166341349933305</v>
+        <v>9.166341349933333</v>
       </c>
       <c r="G19">
-        <v>0.0007791750343455694</v>
+        <v>0.0007791750343403382</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1948963645371435</v>
+        <v>0.1948963645373141</v>
       </c>
       <c r="M19">
-        <v>0.6160385021293422</v>
+        <v>0.6160385021293138</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>3.949503521302631</v>
       </c>
       <c r="C20">
-        <v>0.6706498661109777</v>
+        <v>0.6706498661114608</v>
       </c>
       <c r="D20">
-        <v>0.5249862108015009</v>
+        <v>0.5249862108016998</v>
       </c>
       <c r="E20">
-        <v>0.04272920377989697</v>
+        <v>0.04272920378000045</v>
       </c>
       <c r="F20">
-        <v>9.521590990228106</v>
+        <v>9.521590990228219</v>
       </c>
       <c r="G20">
-        <v>0.0007745067914447656</v>
+        <v>0.0007745067915580254</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2016702304501621</v>
+        <v>0.2016702304502189</v>
       </c>
       <c r="M20">
-        <v>0.6426061283826598</v>
+        <v>0.6426061283827096</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.538829667060327</v>
+        <v>4.538829667060611</v>
       </c>
       <c r="C21">
-        <v>0.7739247878793662</v>
+        <v>0.7739247878798494</v>
       </c>
       <c r="D21">
-        <v>0.5838964736697392</v>
+        <v>0.5838964736702508</v>
       </c>
       <c r="E21">
-        <v>0.0451915886079397</v>
+        <v>0.04519158860796368</v>
       </c>
       <c r="F21">
-        <v>10.7537505052191</v>
+        <v>10.75375050521899</v>
       </c>
       <c r="G21">
-        <v>0.0007587915618866042</v>
+        <v>0.0007587915618049937</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2252238493765475</v>
+        <v>0.2252238493765759</v>
       </c>
       <c r="M21">
-        <v>0.735061384811253</v>
+        <v>0.7350613848112673</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.942173412569446</v>
+        <v>4.942173412569559</v>
       </c>
       <c r="C22">
-        <v>0.8448069366483821</v>
+        <v>0.8448069366483537</v>
       </c>
       <c r="D22">
-        <v>0.6240945205271373</v>
+        <v>0.6240945205273363</v>
       </c>
       <c r="E22">
-        <v>0.04690550465950105</v>
+        <v>0.04690550465955257</v>
       </c>
       <c r="F22">
-        <v>11.59330628966995</v>
+        <v>11.59330628967001</v>
       </c>
       <c r="G22">
-        <v>0.0007484534638481393</v>
+        <v>0.000748453463950885</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.241308896092761</v>
+        <v>0.2413088960927894</v>
       </c>
       <c r="M22">
-        <v>0.7983010691340695</v>
+        <v>0.7983010691339985</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.72503323458966</v>
+        <v>4.725033234589489</v>
       </c>
       <c r="C23">
-        <v>0.8066229602227111</v>
+        <v>0.8066229602230806</v>
       </c>
       <c r="D23">
-        <v>0.6024647844519677</v>
+        <v>0.6024647844520814</v>
       </c>
       <c r="E23">
-        <v>0.04597963454810028</v>
+        <v>0.04597963454815179</v>
       </c>
       <c r="F23">
-        <v>11.14169343427329</v>
+        <v>11.14169343427352</v>
       </c>
       <c r="G23">
-        <v>0.0007539804067698643</v>
+        <v>0.0007539804064908904</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2326537326796085</v>
+        <v>0.2326537326798359</v>
       </c>
       <c r="M23">
-        <v>0.7642604152482875</v>
+        <v>0.7642604152483443</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>3.94013632405489</v>
       </c>
       <c r="C24">
-        <v>0.6690102457377805</v>
+        <v>0.6690102457378657</v>
       </c>
       <c r="D24">
-        <v>0.5240478730114546</v>
+        <v>0.524047873011483</v>
       </c>
       <c r="E24">
-        <v>0.04269040821184955</v>
+        <v>0.04269040821187975</v>
       </c>
       <c r="F24">
-        <v>9.501950011743588</v>
+        <v>9.501950011743446</v>
       </c>
       <c r="G24">
-        <v>0.00077476316166319</v>
+        <v>0.0007747631616767382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2012954834387415</v>
+        <v>0.2012954834386989</v>
       </c>
       <c r="M24">
-        <v>0.6411361579438903</v>
+        <v>0.6411361579438406</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.154131194669958</v>
+        <v>3.154131194670242</v>
       </c>
       <c r="C25">
-        <v>0.5314649811433014</v>
+        <v>0.5314649811429319</v>
       </c>
       <c r="D25">
-        <v>0.4450297299429309</v>
+        <v>0.4450297299427461</v>
       </c>
       <c r="E25">
-        <v>0.03946203459898534</v>
+        <v>0.03946203459909836</v>
       </c>
       <c r="F25">
-        <v>7.846820261867066</v>
+        <v>7.846820261866981</v>
       </c>
       <c r="G25">
-        <v>0.0007971620169575101</v>
+        <v>0.00079716201708504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1698347158814499</v>
+        <v>0.1698347158814926</v>
       </c>
       <c r="M25">
-        <v>0.5177671648751101</v>
+        <v>0.517767164875103</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.612080899840009</v>
+        <v>2.630961794138841</v>
       </c>
       <c r="C2">
-        <v>0.4363717429098131</v>
+        <v>0.6465932784278152</v>
       </c>
       <c r="D2">
-        <v>0.3901050995736455</v>
+        <v>0.03964662306150046</v>
       </c>
       <c r="E2">
-        <v>0.03724914421922398</v>
+        <v>0.04390306652619458</v>
       </c>
       <c r="F2">
-        <v>6.69590482951125</v>
+        <v>0.8582322830669398</v>
       </c>
       <c r="G2">
-        <v>0.0008138805198904798</v>
+        <v>0.7822873631527472</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009664464509748782</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5284240716104591</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4875060457111431</v>
       </c>
       <c r="L2">
-        <v>0.1481602075847448</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4326980422203164</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1602305299120417</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4419522270100984</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261558315376703</v>
+        <v>2.28804328922763</v>
       </c>
       <c r="C3">
-        <v>0.3745524852392919</v>
+        <v>0.5728676634665817</v>
       </c>
       <c r="D3">
-        <v>0.3543091024112215</v>
+        <v>0.03818927466118538</v>
       </c>
       <c r="E3">
-        <v>0.03581014754310274</v>
+        <v>0.044516731181933</v>
       </c>
       <c r="F3">
-        <v>5.946359285686668</v>
+        <v>0.7961340736655842</v>
       </c>
       <c r="G3">
-        <v>0.000825447883275876</v>
+        <v>0.7272489584013044</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002304475193154687</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5097497918546594</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4823154424086553</v>
       </c>
       <c r="L3">
-        <v>0.1341848126714922</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3777198032428117</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.145548314472812</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3853307977277183</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052985199828584</v>
+        <v>2.07781691055078</v>
       </c>
       <c r="C4">
-        <v>0.3375587673027951</v>
+        <v>0.5279547407149323</v>
       </c>
       <c r="D4">
-        <v>0.3328678707429447</v>
+        <v>0.03730667220956718</v>
       </c>
       <c r="E4">
-        <v>0.03494548426085653</v>
+        <v>0.04491232117784394</v>
       </c>
       <c r="F4">
-        <v>5.497898965547677</v>
+        <v>0.7590867905577596</v>
       </c>
       <c r="G4">
-        <v>0.0008326936805369181</v>
+        <v>0.6944893862308277</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003615782625741026</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4989209187772303</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4797020226742248</v>
       </c>
       <c r="L4">
-        <v>0.1258962823121408</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3450291067272246</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1367832910527795</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3507185008401166</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.969446629174456</v>
+        <v>1.992151026374358</v>
       </c>
       <c r="C5">
-        <v>0.322682825540511</v>
+        <v>0.5104699375449115</v>
       </c>
       <c r="D5">
-        <v>0.3242438055202967</v>
+        <v>0.03700318191155816</v>
       </c>
       <c r="E5">
-        <v>0.03459645773450482</v>
+        <v>0.04507567091387754</v>
       </c>
       <c r="F5">
-        <v>5.317679998899592</v>
+        <v>0.7430192293959479</v>
       </c>
       <c r="G5">
-        <v>0.0008356859256484217</v>
+        <v>0.6800198824351469</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004344338600531739</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4939619469359684</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4778835386644609</v>
       </c>
       <c r="L5">
-        <v>0.1225843566806049</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3319424958382768</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1333247578420611</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3366789130030554</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.955657243357678</v>
+        <v>1.977868550197229</v>
       </c>
       <c r="C6">
-        <v>0.3202235608344495</v>
+        <v>0.5084804872295479</v>
       </c>
       <c r="D6">
-        <v>0.3228180418518747</v>
+        <v>0.03701863592971222</v>
       </c>
       <c r="E6">
-        <v>0.0345386652077857</v>
+        <v>0.04510010968463618</v>
       </c>
       <c r="F6">
-        <v>5.287896114066683</v>
+        <v>0.7388741594276809</v>
       </c>
       <c r="G6">
-        <v>0.0008361852674628717</v>
+        <v>0.6759722854122288</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004574976880590498</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.492296485358267</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4765044690659082</v>
       </c>
       <c r="L6">
-        <v>0.1220381699911002</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3297827775681625</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1328205604462909</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3343895658496834</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.051852938851084</v>
+        <v>2.076492874354813</v>
       </c>
       <c r="C7">
-        <v>0.3373573914039412</v>
+        <v>0.5302113983444769</v>
       </c>
       <c r="D7">
-        <v>0.3327511315259812</v>
+        <v>0.03748310614269101</v>
       </c>
       <c r="E7">
-        <v>0.03494076542607383</v>
+        <v>0.04490709002185289</v>
       </c>
       <c r="F7">
-        <v>5.495458746801745</v>
+        <v>0.7547903752060279</v>
       </c>
       <c r="G7">
-        <v>0.000832733870525374</v>
+        <v>0.6897569831331367</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003887486016418862</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4965290491895047</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4767131949371723</v>
       </c>
       <c r="L7">
-        <v>0.1258513601739608</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.344851705142176</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1369186558253546</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3506379704424276</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.489703200089309</v>
+        <v>2.512393054172094</v>
       </c>
       <c r="C8">
-        <v>0.4148289377791343</v>
+        <v>0.6244313819459535</v>
       </c>
       <c r="D8">
-        <v>0.3776371766556537</v>
+        <v>0.03938670376940934</v>
       </c>
       <c r="E8">
-        <v>0.03674814509908164</v>
+        <v>0.04410414255243822</v>
       </c>
       <c r="F8">
-        <v>6.434748770674105</v>
+        <v>0.8311703142242521</v>
       </c>
       <c r="G8">
-        <v>0.0008178413922765767</v>
+        <v>0.7570625671710758</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001625248179519367</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5187724499672584</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4816800668262147</v>
       </c>
       <c r="L8">
-        <v>0.1432758277198332</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4134992194759803</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1553560552263278</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4225345783904473</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.41228921883561</v>
+        <v>3.37162926491925</v>
       </c>
       <c r="C9">
-        <v>0.5766509037062235</v>
+        <v>0.8081274371480163</v>
       </c>
       <c r="D9">
-        <v>0.4710507432647972</v>
+        <v>0.0428945607149096</v>
       </c>
       <c r="E9">
-        <v>0.04051762702148931</v>
+        <v>0.04268900038812129</v>
       </c>
       <c r="F9">
-        <v>8.392057538441549</v>
+        <v>0.9979339508781635</v>
       </c>
       <c r="G9">
-        <v>0.000789596119937238</v>
+        <v>0.9064904401775351</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001040970932300489</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5720955849303948</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5016829654442105</v>
       </c>
       <c r="L9">
-        <v>0.1801686320972706</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5582895922610902</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1933582658940196</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5648575418777</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.14755192583965</v>
+        <v>4.007616854501862</v>
       </c>
       <c r="C10">
-        <v>0.7053271606582996</v>
+        <v>0.947474396301601</v>
       </c>
       <c r="D10">
-        <v>0.5448098850288261</v>
+        <v>0.04565522350064555</v>
       </c>
       <c r="E10">
-        <v>0.04355178431073181</v>
+        <v>0.04174656884448025</v>
       </c>
       <c r="F10">
-        <v>9.936432790076111</v>
+        <v>1.125921412345647</v>
       </c>
       <c r="G10">
-        <v>0.0007691369828938393</v>
+        <v>1.02131098139678</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003813290372610467</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6142431032156281</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5185978875143178</v>
       </c>
       <c r="L10">
-        <v>0.2095911257195553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6736826801490068</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2229823566936346</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6708677259504512</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.499646705310113</v>
+        <v>4.298160397726463</v>
       </c>
       <c r="C11">
-        <v>0.7670489340419522</v>
+        <v>1.016079065300659</v>
       </c>
       <c r="D11">
-        <v>0.5799866022350102</v>
+        <v>0.04726543230189861</v>
       </c>
       <c r="E11">
-        <v>0.04502642044390992</v>
+        <v>0.04134379155938417</v>
       </c>
       <c r="F11">
-        <v>10.67203440234312</v>
+        <v>1.179426135846498</v>
       </c>
       <c r="G11">
-        <v>0.0007598128135114128</v>
+        <v>1.068042191334129</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006205137803072525</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.630700571947969</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5224685010134849</v>
       </c>
       <c r="L11">
-        <v>0.223659526275668</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7289161094329657</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2371820213597147</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7196714172240277</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.636041014088335</v>
+        <v>4.408666247597864</v>
       </c>
       <c r="C12">
-        <v>0.7909906211627344</v>
+        <v>1.039938835391069</v>
       </c>
       <c r="D12">
-        <v>0.5935928649916207</v>
+        <v>0.04770541235379255</v>
       </c>
       <c r="E12">
-        <v>0.04560234582387279</v>
+        <v>0.04119357087234743</v>
       </c>
       <c r="F12">
-        <v>10.95636269491558</v>
+        <v>1.203591496237649</v>
       </c>
       <c r="G12">
-        <v>0.0007562712740328802</v>
+        <v>1.090033314113413</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.007053815345014591</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6391188937619177</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5266288202504725</v>
       </c>
       <c r="L12">
-        <v>0.2291036238757442</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7503062344919513</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2424642143501927</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7381355387985522</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.606520221370431</v>
+        <v>4.384895178296574</v>
       </c>
       <c r="C13">
-        <v>0.785807027927973</v>
+        <v>1.034333299975231</v>
       </c>
       <c r="D13">
-        <v>0.5906488699325791</v>
+        <v>0.04757510150552235</v>
       </c>
       <c r="E13">
-        <v>0.04547745864384778</v>
+        <v>0.04122540720991852</v>
       </c>
       <c r="F13">
-        <v>10.89485245352199</v>
+        <v>1.199092187979176</v>
       </c>
       <c r="G13">
-        <v>0.0007570346307688932</v>
+        <v>1.086081844551956</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006826661177690596</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6377031380261684</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5262361988120503</v>
       </c>
       <c r="L13">
-        <v>0.2279256203072322</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7456769377955013</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2412910176047234</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7341384095558539</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.510803134393427</v>
+        <v>4.307263388257638</v>
       </c>
       <c r="C14">
-        <v>0.7690065097579009</v>
+        <v>1.017843665606193</v>
       </c>
       <c r="D14">
-        <v>0.5810999386372089</v>
+        <v>0.04728654327672643</v>
       </c>
       <c r="E14">
-        <v>0.04507342541630832</v>
+        <v>0.04133121969221731</v>
       </c>
       <c r="F14">
-        <v>10.6953040470604</v>
+        <v>1.181713267398663</v>
       </c>
       <c r="G14">
-        <v>0.0007595217159743008</v>
+        <v>1.070184231650501</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006255579849264059</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6315616831738851</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5230243826607008</v>
       </c>
       <c r="L14">
-        <v>0.2241049592048796</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7306658630634786</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.237601408975479</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7211816475843591</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.452590149311504</v>
+        <v>4.259669348593263</v>
       </c>
       <c r="C15">
-        <v>0.7587934895300634</v>
+        <v>1.008668151613278</v>
       </c>
       <c r="D15">
-        <v>0.5752898568784133</v>
+        <v>0.04717983596045627</v>
       </c>
       <c r="E15">
-        <v>0.04482835619326098</v>
+        <v>0.04139711794184953</v>
       </c>
       <c r="F15">
-        <v>10.57386012327953</v>
+        <v>1.169695590934992</v>
       </c>
       <c r="G15">
-        <v>0.0007610434657176048</v>
+        <v>1.058917382177</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.006003553801750883</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6270256441745943</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5200735080829944</v>
       </c>
       <c r="L15">
-        <v>0.2217804947101598</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7215355826179604</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2354142772353924</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7132889211640219</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.124939258026984</v>
+        <v>3.988001737391585</v>
       </c>
       <c r="C16">
-        <v>0.7013665784809007</v>
+        <v>0.9505956600459342</v>
       </c>
       <c r="D16">
-        <v>0.5425479072664814</v>
+        <v>0.04612999688665553</v>
       </c>
       <c r="E16">
-        <v>0.04345762994058866</v>
+        <v>0.04177650610655359</v>
       </c>
       <c r="F16">
-        <v>9.889107437057788</v>
+        <v>1.110531158362406</v>
       </c>
       <c r="G16">
-        <v>0.0007697453264909122</v>
+        <v>1.005043246990567</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004314277437805103</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6064656430826005</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5098807470172417</v>
       </c>
       <c r="L16">
-        <v>0.2086869785614738</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6701347144387242</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2226019131588828</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6679783361993614</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928794951515158</v>
+        <v>3.821798720963898</v>
       </c>
       <c r="C17">
-        <v>0.6670251229408848</v>
+        <v>0.915181748445633</v>
       </c>
       <c r="D17">
-        <v>0.522911685472792</v>
+        <v>0.04548917969639632</v>
       </c>
       <c r="E17">
-        <v>0.04264344904885808</v>
+        <v>0.04201471853165728</v>
       </c>
       <c r="F17">
-        <v>9.478167156994147</v>
+        <v>1.07483480062821</v>
       </c>
       <c r="G17">
-        <v>0.0007750738603562975</v>
+        <v>0.9725890362361156</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00349775351255488</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5941700794286788</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5039204080289394</v>
       </c>
       <c r="L17">
-        <v>0.2008417452647393</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.639356371154598</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2148510842726665</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6402949752205771</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817599353692628</v>
+        <v>3.726548722696464</v>
       </c>
       <c r="C18">
-        <v>0.647564931674026</v>
+        <v>0.8925891670965882</v>
       </c>
       <c r="D18">
-        <v>0.5117666064097079</v>
+        <v>0.04494610526404585</v>
       </c>
       <c r="E18">
-        <v>0.04218375696491172</v>
+        <v>0.0421529327930168</v>
       </c>
       <c r="F18">
-        <v>9.244845751334339</v>
+        <v>1.058111710220075</v>
       </c>
       <c r="G18">
-        <v>0.0007781376441699126</v>
+        <v>0.9581250527137684</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002868978237028585</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5892386392686291</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5031514098561232</v>
       </c>
       <c r="L18">
-        <v>0.1963924779514628</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6219058234122627</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.210268180346219</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6243215235618749</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780214386745058</v>
+        <v>3.694173600742431</v>
       </c>
       <c r="C19">
-        <v>0.6410231944261398</v>
+        <v>0.8867213491017765</v>
       </c>
       <c r="D19">
-        <v>0.5080172577771975</v>
+        <v>0.0448977761451772</v>
       </c>
       <c r="E19">
-        <v>0.04202948433095655</v>
+        <v>0.04220066104523834</v>
       </c>
       <c r="F19">
-        <v>9.166341349933333</v>
+        <v>1.049706241333638</v>
       </c>
       <c r="G19">
-        <v>0.0007791750343403382</v>
+        <v>0.950178614430456</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002847608713079985</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.586021507664185</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5009350609075014</v>
       </c>
       <c r="L19">
-        <v>0.1948963645373141</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6160385021293138</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2088486214083218</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6189882280751533</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.949503521302631</v>
+        <v>3.839490631396302</v>
       </c>
       <c r="C20">
-        <v>0.6706498661114608</v>
+        <v>0.9187635952974347</v>
       </c>
       <c r="D20">
-        <v>0.5249862108016998</v>
+        <v>0.04554343702743324</v>
       </c>
       <c r="E20">
-        <v>0.04272920378000045</v>
+        <v>0.04198906899185362</v>
       </c>
       <c r="F20">
-        <v>9.521590990228219</v>
+        <v>1.078895531543367</v>
       </c>
       <c r="G20">
-        <v>0.0007745067915580254</v>
+        <v>0.9763358081537774</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003557950062292647</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5956265829727556</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.504744639414767</v>
       </c>
       <c r="L20">
-        <v>0.2016702304502189</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6426061283827096</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.215659371793393</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6432308952849866</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.538829667060611</v>
+        <v>4.329824870109235</v>
       </c>
       <c r="C21">
-        <v>0.7739247878798494</v>
+        <v>1.025263013801691</v>
       </c>
       <c r="D21">
-        <v>0.5838964736702508</v>
+        <v>0.04756998496660003</v>
       </c>
       <c r="E21">
-        <v>0.04519158860796368</v>
+        <v>0.04130219076024755</v>
       </c>
       <c r="F21">
-        <v>10.75375050521899</v>
+        <v>1.18277292131782</v>
       </c>
       <c r="G21">
-        <v>0.0007587915618049937</v>
+        <v>1.070365072177395</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006649335000812329</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6310905542556355</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5211057231477056</v>
       </c>
       <c r="L21">
-        <v>0.2252238493765759</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7350613848112673</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2388657666998171</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7250824470127029</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.942173412569559</v>
+        <v>4.652279557817735</v>
       </c>
       <c r="C22">
-        <v>0.8448069366483537</v>
+        <v>1.092362664126824</v>
       </c>
       <c r="D22">
-        <v>0.6240945205273363</v>
+        <v>0.04865342137571105</v>
       </c>
       <c r="E22">
-        <v>0.04690550465955257</v>
+        <v>0.04086876432337672</v>
       </c>
       <c r="F22">
-        <v>11.59330628967001</v>
+        <v>1.257900505359203</v>
       </c>
       <c r="G22">
-        <v>0.000748453463950885</v>
+        <v>1.139611795188245</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00913780111617335</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6582602341693757</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5364464696045275</v>
       </c>
       <c r="L22">
-        <v>0.2413088960927894</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7983010691339985</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.254182524684893</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7788651482425806</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.725033234589489</v>
+        <v>4.480290706549965</v>
       </c>
       <c r="C23">
-        <v>0.8066229602230806</v>
+        <v>1.053362362536433</v>
       </c>
       <c r="D23">
-        <v>0.6024647844520814</v>
+        <v>0.0478345336944912</v>
       </c>
       <c r="E23">
-        <v>0.04597963454815179</v>
+        <v>0.04109576697905171</v>
       </c>
       <c r="F23">
-        <v>11.14169343427352</v>
+        <v>1.222467927216286</v>
       </c>
       <c r="G23">
-        <v>0.0007539804064908904</v>
+        <v>1.107855082139679</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007478461200810749</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6463911457427969</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5316105490061176</v>
       </c>
       <c r="L23">
-        <v>0.2326537326798359</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7642604152483443</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2457506935198808</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7500027316100457</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.94013632405489</v>
+        <v>3.831907728955343</v>
       </c>
       <c r="C24">
-        <v>0.6690102457378657</v>
+        <v>0.9122876241982283</v>
       </c>
       <c r="D24">
-        <v>0.524047873011483</v>
+        <v>0.04514780964325382</v>
       </c>
       <c r="E24">
-        <v>0.04269040821187975</v>
+        <v>0.04199898551129877</v>
       </c>
       <c r="F24">
-        <v>9.501950011743446</v>
+        <v>1.084692695778912</v>
       </c>
       <c r="G24">
-        <v>0.0007747631616767382</v>
+        <v>0.9831165122132433</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00307412634759352</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5992702140174089</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5097963445956211</v>
       </c>
       <c r="L24">
-        <v>0.2012954834386989</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6411361579438406</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2149487889282682</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6417156493152802</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.154131194670242</v>
+        <v>3.138144967007065</v>
       </c>
       <c r="C25">
-        <v>0.5314649811429319</v>
+        <v>0.7626119134004341</v>
       </c>
       <c r="D25">
-        <v>0.4450297299427461</v>
+        <v>0.04228053428501966</v>
       </c>
       <c r="E25">
-        <v>0.03946203459909836</v>
+        <v>0.04305200281995925</v>
       </c>
       <c r="F25">
-        <v>7.846820261866981</v>
+        <v>0.9442163499850409</v>
       </c>
       <c r="G25">
-        <v>0.00079716201708504</v>
+        <v>0.8566751614595489</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001102976785247733</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5528125671019808</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4903669700029312</v>
       </c>
       <c r="L25">
-        <v>0.1698347158814926</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.517767164875103</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1831497836807614</v>
       </c>
       <c r="O25">
+        <v>0.526333584331546</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.630961794138841</v>
+        <v>2.635498477372835</v>
       </c>
       <c r="C2">
-        <v>0.6465932784278152</v>
+        <v>0.6986050773545571</v>
       </c>
       <c r="D2">
-        <v>0.03964662306150046</v>
+        <v>0.0437922231081771</v>
       </c>
       <c r="E2">
-        <v>0.04390306652619458</v>
+        <v>0.04194462446812874</v>
       </c>
       <c r="F2">
-        <v>0.8582322830669398</v>
+        <v>0.748206912863921</v>
       </c>
       <c r="G2">
-        <v>0.7822873631527472</v>
+        <v>0.6395285245567095</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0009664464509748782</v>
+        <v>0.0007410596045369644</v>
       </c>
       <c r="J2">
-        <v>0.5284240716104591</v>
+        <v>0.5031945744437678</v>
       </c>
       <c r="K2">
-        <v>0.4875060457111431</v>
+        <v>0.4002045881300909</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1960015851932972</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1116893029018513</v>
       </c>
       <c r="N2">
-        <v>0.1602305299120417</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4419522270100984</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1664619503323266</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4454694756838506</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.28804328922763</v>
+        <v>2.29399388467624</v>
       </c>
       <c r="C3">
-        <v>0.5728676634665817</v>
+        <v>0.6121407213745726</v>
       </c>
       <c r="D3">
-        <v>0.03818927466118538</v>
+        <v>0.04087331034273234</v>
       </c>
       <c r="E3">
-        <v>0.044516731181933</v>
+        <v>0.04244624757702198</v>
       </c>
       <c r="F3">
-        <v>0.7961340736655842</v>
+        <v>0.700961526361489</v>
       </c>
       <c r="G3">
-        <v>0.7272489584013044</v>
+        <v>0.6019179600603763</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002304475193154687</v>
+        <v>0.001528363405348898</v>
       </c>
       <c r="J3">
-        <v>0.5097497918546594</v>
+        <v>0.4879472087332886</v>
       </c>
       <c r="K3">
-        <v>0.4823154424086553</v>
+        <v>0.4031154245264013</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2010739836951778</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1095469895615899</v>
       </c>
       <c r="N3">
-        <v>0.145548314472812</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3853307977277183</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1511363692058794</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3882706955559954</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.07781691055078</v>
+        <v>2.084324783370334</v>
       </c>
       <c r="C4">
-        <v>0.5279547407149323</v>
+        <v>0.5595668861070919</v>
       </c>
       <c r="D4">
-        <v>0.03730667220956718</v>
+        <v>0.03910932162951752</v>
       </c>
       <c r="E4">
-        <v>0.04491232117784394</v>
+        <v>0.0427792958881108</v>
       </c>
       <c r="F4">
-        <v>0.7590867905577596</v>
+        <v>0.6726664465654864</v>
       </c>
       <c r="G4">
-        <v>0.6944893862308277</v>
+        <v>0.5797390434034355</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003615782625741026</v>
+        <v>0.002383564263571891</v>
       </c>
       <c r="J4">
-        <v>0.4989209187772303</v>
+        <v>0.4787253403784177</v>
       </c>
       <c r="K4">
-        <v>0.4797020226742248</v>
+        <v>0.4052740449631962</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2041848669563002</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1090553472931077</v>
       </c>
       <c r="N4">
-        <v>0.1367832910527795</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3507185008401166</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1419880021564808</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3532500879319898</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.992151026374358</v>
+        <v>1.998816733743695</v>
       </c>
       <c r="C5">
-        <v>0.5104699375449115</v>
+        <v>0.5389939202427456</v>
       </c>
       <c r="D5">
-        <v>0.03700318191155816</v>
+        <v>0.0384570717872883</v>
       </c>
       <c r="E5">
-        <v>0.04507567091387754</v>
+        <v>0.04292275770343057</v>
       </c>
       <c r="F5">
-        <v>0.7430192293959479</v>
+        <v>0.6602495135646791</v>
       </c>
       <c r="G5">
-        <v>0.6800198824351469</v>
+        <v>0.5697704296879067</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004344338600531739</v>
+        <v>0.002909285784629567</v>
       </c>
       <c r="J5">
-        <v>0.4939619469359684</v>
+        <v>0.4743899350303593</v>
       </c>
       <c r="K5">
-        <v>0.4778835386644609</v>
+        <v>0.4055272555792619</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2051173319802579</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1088546416502609</v>
       </c>
       <c r="N5">
-        <v>0.1333247578420611</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3366789130030554</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1383724179699044</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3390290915451217</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.977868550197229</v>
+        <v>1.984557813102356</v>
       </c>
       <c r="C6">
-        <v>0.5084804872295479</v>
+        <v>0.5364857693529643</v>
       </c>
       <c r="D6">
-        <v>0.03701863592971222</v>
+        <v>0.03842280615602434</v>
       </c>
       <c r="E6">
-        <v>0.04510010968463618</v>
+        <v>0.04294892783456472</v>
       </c>
       <c r="F6">
-        <v>0.7388741594276809</v>
+        <v>0.6569150264292034</v>
       </c>
       <c r="G6">
-        <v>0.6759722854122288</v>
+        <v>0.5667352806875243</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004574976880590498</v>
+        <v>0.003119366392038359</v>
       </c>
       <c r="J6">
-        <v>0.492296485358267</v>
+        <v>0.4729283346290032</v>
       </c>
       <c r="K6">
-        <v>0.4765044690659082</v>
+        <v>0.4047040341836698</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2048656359884902</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1085856362946984</v>
       </c>
       <c r="N6">
-        <v>0.1328205604462909</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3343895658496834</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1378375034080435</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3367054354658379</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.076492874354813</v>
+        <v>2.082990132040834</v>
       </c>
       <c r="C7">
-        <v>0.5302113983444769</v>
+        <v>0.5609725648802169</v>
       </c>
       <c r="D7">
-        <v>0.03748310614269101</v>
+        <v>0.03943205755517454</v>
       </c>
       <c r="E7">
-        <v>0.04490709002185289</v>
+        <v>0.04277240993859532</v>
       </c>
       <c r="F7">
-        <v>0.7547903752060279</v>
+        <v>0.6669088094213294</v>
       </c>
       <c r="G7">
-        <v>0.6897569831331367</v>
+        <v>0.5786056809468221</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003887486016418862</v>
+        <v>0.002696666830578565</v>
       </c>
       <c r="J7">
-        <v>0.4965290491895047</v>
+        <v>0.4701015065109146</v>
       </c>
       <c r="K7">
-        <v>0.4767131949371723</v>
+        <v>0.4018790635796954</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.202640377406226</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.108053606333943</v>
       </c>
       <c r="N7">
-        <v>0.1369186558253546</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3506379704424276</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1420588597261911</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3531265803152621</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512393054172094</v>
+        <v>2.517422849887055</v>
       </c>
       <c r="C8">
-        <v>0.6244313819459535</v>
+        <v>0.6693437502846109</v>
       </c>
       <c r="D8">
-        <v>0.03938670376940934</v>
+        <v>0.04350236337450397</v>
       </c>
       <c r="E8">
-        <v>0.04410414255243822</v>
+        <v>0.0420758183781258</v>
       </c>
       <c r="F8">
-        <v>0.8311703142242521</v>
+        <v>0.7202318475079679</v>
       </c>
       <c r="G8">
-        <v>0.7570625671710758</v>
+        <v>0.6307386281993814</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001625248179519367</v>
+        <v>0.001294547993321515</v>
       </c>
       <c r="J8">
-        <v>0.5187724499672584</v>
+        <v>0.4738371466291795</v>
       </c>
       <c r="K8">
-        <v>0.4816800668262147</v>
+        <v>0.3946967401803931</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1950026584915392</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1086848076481282</v>
       </c>
       <c r="N8">
-        <v>0.1553560552263278</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4225345783904473</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1611795765495643</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4257432613878009</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.37162926491925</v>
+        <v>3.37096936183184</v>
       </c>
       <c r="C9">
-        <v>0.8081274371480163</v>
+        <v>0.884928440306112</v>
       </c>
       <c r="D9">
-        <v>0.0428945607149096</v>
+        <v>0.05087472162637852</v>
       </c>
       <c r="E9">
-        <v>0.04268900038812129</v>
+        <v>0.04094768297131068</v>
       </c>
       <c r="F9">
-        <v>0.9979339508781635</v>
+        <v>0.8450691722711667</v>
       </c>
       <c r="G9">
-        <v>0.9064904401775351</v>
+        <v>0.7377801153350418</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001040970932300489</v>
+        <v>0.001278419156890642</v>
       </c>
       <c r="J9">
-        <v>0.5720955849303948</v>
+        <v>0.509296807321661</v>
       </c>
       <c r="K9">
-        <v>0.5016829654442105</v>
+        <v>0.3917253143358366</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1834785117047204</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1191618908288845</v>
       </c>
       <c r="N9">
-        <v>0.1933582658940196</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5648575418777</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2008065782085993</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5691116248885777</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.007616854501862</v>
+        <v>4.000252885417922</v>
       </c>
       <c r="C10">
-        <v>0.947474396301601</v>
+        <v>1.043587578681894</v>
       </c>
       <c r="D10">
-        <v>0.04565522350064555</v>
+        <v>0.05744196098158483</v>
       </c>
       <c r="E10">
-        <v>0.04174656884448025</v>
+        <v>0.0401733017472754</v>
       </c>
       <c r="F10">
-        <v>1.125921412345647</v>
+        <v>0.9281316473538936</v>
       </c>
       <c r="G10">
-        <v>1.02131098139678</v>
+        <v>0.8380966657444731</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003813290372610467</v>
+        <v>0.003693872983959068</v>
       </c>
       <c r="J10">
-        <v>0.6142431032156281</v>
+        <v>0.4992973602673914</v>
       </c>
       <c r="K10">
-        <v>0.5185978875143178</v>
+        <v>0.3852466316423104</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1726888381795071</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.128641937515706</v>
       </c>
       <c r="N10">
-        <v>0.2229823566936346</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6708677259504512</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2313442560672883</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6752610374745132</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.298160397726463</v>
+        <v>4.286739523358335</v>
       </c>
       <c r="C11">
-        <v>1.016079065300659</v>
+        <v>1.11244674272632</v>
       </c>
       <c r="D11">
-        <v>0.04726543230189861</v>
+        <v>0.06247530649258692</v>
       </c>
       <c r="E11">
-        <v>0.04134379155938417</v>
+        <v>0.03974130497889483</v>
       </c>
       <c r="F11">
-        <v>1.179426135846498</v>
+        <v>0.9405876373424178</v>
       </c>
       <c r="G11">
-        <v>1.068042191334129</v>
+        <v>0.9101662860448982</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.006205137803072525</v>
+        <v>0.005739838874744052</v>
       </c>
       <c r="J11">
-        <v>0.630700571947969</v>
+        <v>0.4339311727385819</v>
       </c>
       <c r="K11">
-        <v>0.5224685010134849</v>
+        <v>0.3697763302092767</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1634029074602985</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.128480687788354</v>
       </c>
       <c r="N11">
-        <v>0.2371820213597147</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7196714172240277</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.245385767551852</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7235979589080657</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.408666247597864</v>
+        <v>4.395527314687627</v>
       </c>
       <c r="C12">
-        <v>1.039938835391069</v>
+        <v>1.135302871401905</v>
       </c>
       <c r="D12">
-        <v>0.04770541235379255</v>
+        <v>0.0644134289943068</v>
       </c>
       <c r="E12">
-        <v>0.04119357087234743</v>
+        <v>0.03955353427200858</v>
       </c>
       <c r="F12">
-        <v>1.203591496237649</v>
+        <v>0.9458131480241008</v>
       </c>
       <c r="G12">
-        <v>1.090033314113413</v>
+        <v>0.9454025444505163</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.007053815345014591</v>
+        <v>0.006365551394642566</v>
       </c>
       <c r="J12">
-        <v>0.6391188937619177</v>
+        <v>0.4056230108198093</v>
       </c>
       <c r="K12">
-        <v>0.5266288202504725</v>
+        <v>0.3647376915264573</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1602239071050526</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1287861560690331</v>
       </c>
       <c r="N12">
-        <v>0.2424642143501927</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7381355387985522</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2505451969101955</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7418176664762015</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.384895178296574</v>
+        <v>4.372128451151639</v>
       </c>
       <c r="C13">
-        <v>1.034333299975231</v>
+        <v>1.129965887777985</v>
       </c>
       <c r="D13">
-        <v>0.04757510150552235</v>
+        <v>0.06394053476856243</v>
       </c>
       <c r="E13">
-        <v>0.04122540720991852</v>
+        <v>0.03959142547883587</v>
       </c>
       <c r="F13">
-        <v>1.199092187979176</v>
+        <v>0.9453777038969662</v>
       </c>
       <c r="G13">
-        <v>1.086081844551956</v>
+        <v>0.938273702307427</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.006826661177690596</v>
+        <v>0.006178517705142994</v>
       </c>
       <c r="J13">
-        <v>0.6377031380261684</v>
+        <v>0.4121708797124057</v>
       </c>
       <c r="K13">
-        <v>0.5262361988120503</v>
+        <v>0.3662329560385587</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1610457583612401</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1288886361404771</v>
       </c>
       <c r="N13">
-        <v>0.2412910176047234</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7341384095558539</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2494042066720681</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7378778384330786</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.307263388257638</v>
+        <v>4.295702340729974</v>
       </c>
       <c r="C14">
-        <v>1.017843665606193</v>
+        <v>1.114151922501009</v>
       </c>
       <c r="D14">
-        <v>0.04728654327672643</v>
+        <v>0.06261117745446398</v>
       </c>
       <c r="E14">
-        <v>0.04133121969221731</v>
+        <v>0.03972478129356283</v>
       </c>
       <c r="F14">
-        <v>1.181713267398663</v>
+        <v>0.9413145515969035</v>
       </c>
       <c r="G14">
-        <v>1.070184231650501</v>
+        <v>0.9132542076636412</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006255579849264059</v>
+        <v>0.005768605969895368</v>
       </c>
       <c r="J14">
-        <v>0.6315616831738851</v>
+        <v>0.43180732807879</v>
       </c>
       <c r="K14">
-        <v>0.5230243826607008</v>
+        <v>0.3695386125425415</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.163200981417539</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1285778167237623</v>
       </c>
       <c r="N14">
-        <v>0.237601408975479</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7211816475843591</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2457975770303307</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7250901452737253</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.259669348593263</v>
+        <v>4.248835085655571</v>
       </c>
       <c r="C15">
-        <v>1.008668151613278</v>
+        <v>1.105242916323306</v>
       </c>
       <c r="D15">
-        <v>0.04717983596045627</v>
+        <v>0.0619144523682067</v>
       </c>
       <c r="E15">
-        <v>0.04139711794184953</v>
+        <v>0.03981114433446109</v>
       </c>
       <c r="F15">
-        <v>1.169695590934992</v>
+        <v>0.9373531965647146</v>
       </c>
       <c r="G15">
-        <v>1.058917382177</v>
+        <v>0.8972370784903205</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.006003553801750883</v>
+        <v>0.005629386784421264</v>
       </c>
       <c r="J15">
-        <v>0.6270256441745943</v>
+        <v>0.4426819942295026</v>
       </c>
       <c r="K15">
-        <v>0.5200735080829944</v>
+        <v>0.3706991704487876</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1642291486784089</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1280389622844105</v>
       </c>
       <c r="N15">
-        <v>0.2354142772353924</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7132889211640219</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2436468060616619</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7172885885398159</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.988001737391585</v>
+        <v>3.980953539725249</v>
       </c>
       <c r="C16">
-        <v>0.9505956600459342</v>
+        <v>1.046553278330975</v>
       </c>
       <c r="D16">
-        <v>0.04612999688665553</v>
+        <v>0.0578355178608021</v>
       </c>
       <c r="E16">
-        <v>0.04177650610655359</v>
+        <v>0.04024856208939376</v>
       </c>
       <c r="F16">
-        <v>1.110531158362406</v>
+        <v>0.9171410160326872</v>
       </c>
       <c r="G16">
-        <v>1.005043246990567</v>
+        <v>0.8230104806431626</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004314277437805103</v>
+        <v>0.004367463274857819</v>
       </c>
       <c r="J16">
-        <v>0.6064656430826005</v>
+        <v>0.4975698717826731</v>
       </c>
       <c r="K16">
-        <v>0.5098807470172417</v>
+        <v>0.3798266067559481</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1710239432134166</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1260884232606507</v>
       </c>
       <c r="N16">
-        <v>0.2226019131588828</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6679783361993614</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.230926354165149</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6723705894902636</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.821798720963898</v>
+        <v>3.816802172371297</v>
       </c>
       <c r="C17">
-        <v>0.915181748445633</v>
+        <v>1.00889568635057</v>
       </c>
       <c r="D17">
-        <v>0.04548917969639632</v>
+        <v>0.05570804527472006</v>
       </c>
       <c r="E17">
-        <v>0.04201471853165728</v>
+        <v>0.04049634983509254</v>
       </c>
       <c r="F17">
-        <v>1.07483480062821</v>
+        <v>0.9005621788507625</v>
       </c>
       <c r="G17">
-        <v>0.9725890362361156</v>
+        <v>0.7850037598732342</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00349775351255488</v>
+        <v>0.003738485990907314</v>
       </c>
       <c r="J17">
-        <v>0.5941700794286788</v>
+        <v>0.5200359143919542</v>
       </c>
       <c r="K17">
-        <v>0.5039204080289394</v>
+        <v>0.3835589783280184</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.174563624224799</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1242652373818771</v>
       </c>
       <c r="N17">
-        <v>0.2148510842726665</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6402949752205771</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2231090058966174</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6448054758612614</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.726548722696464</v>
+        <v>3.722619286001816</v>
       </c>
       <c r="C18">
-        <v>0.8925891670965882</v>
+        <v>0.9843502418164292</v>
       </c>
       <c r="D18">
-        <v>0.04494610526404585</v>
+        <v>0.05440524708063776</v>
       </c>
       <c r="E18">
-        <v>0.0421529327930168</v>
+        <v>0.04061597660727578</v>
       </c>
       <c r="F18">
-        <v>1.058111710220075</v>
+        <v>0.8925445660520666</v>
       </c>
       <c r="G18">
-        <v>0.9581250527137684</v>
+        <v>0.7689611030062622</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002868978237028585</v>
+        <v>0.003139177459537734</v>
       </c>
       <c r="J18">
-        <v>0.5892386392686291</v>
+        <v>0.5301024171949393</v>
       </c>
       <c r="K18">
-        <v>0.5031514098561232</v>
+        <v>0.3869603205163799</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1770610486473245</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1237557825991829</v>
       </c>
       <c r="N18">
-        <v>0.210268180346219</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6243215235618749</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2184568708301811</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6288648586463452</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.694173600742431</v>
+        <v>3.690605189259657</v>
       </c>
       <c r="C19">
-        <v>0.8867213491017765</v>
+        <v>0.9777178535612165</v>
       </c>
       <c r="D19">
-        <v>0.0448977761451772</v>
+        <v>0.0541423158755947</v>
       </c>
       <c r="E19">
-        <v>0.04220066104523834</v>
+        <v>0.04066642373444829</v>
       </c>
       <c r="F19">
-        <v>1.049706241333638</v>
+        <v>0.8872646791262468</v>
       </c>
       <c r="G19">
-        <v>0.950178614430456</v>
+        <v>0.7614177223749863</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002847608713079985</v>
+        <v>0.003164544744213238</v>
       </c>
       <c r="J19">
-        <v>0.586021507664185</v>
+        <v>0.5314291471194252</v>
       </c>
       <c r="K19">
-        <v>0.5009350609075014</v>
+        <v>0.3865091217598433</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1773229178790316</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1229687746688661</v>
       </c>
       <c r="N19">
-        <v>0.2088486214083218</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6189882280751533</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2169981006666575</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6235305400138245</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.839490631396302</v>
+        <v>3.834283918771973</v>
       </c>
       <c r="C20">
-        <v>0.9187635952974347</v>
+        <v>1.012784433335383</v>
       </c>
       <c r="D20">
-        <v>0.04554343702743324</v>
+        <v>0.05590507067334727</v>
       </c>
       <c r="E20">
-        <v>0.04198906899185362</v>
+        <v>0.04046963137424253</v>
       </c>
       <c r="F20">
-        <v>1.078895531543367</v>
+        <v>0.9027168463150161</v>
       </c>
       <c r="G20">
-        <v>0.9763358081537774</v>
+        <v>0.7890397015458177</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003557950062292647</v>
+        <v>0.003777032943070857</v>
       </c>
       <c r="J20">
-        <v>0.5956265829727556</v>
+        <v>0.5182346055066205</v>
       </c>
       <c r="K20">
-        <v>0.504744639414767</v>
+        <v>0.3833822680920917</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1742658159649615</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1245408240552237</v>
       </c>
       <c r="N20">
-        <v>0.215659371793393</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6432308952849866</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2239297168216154</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6477337522629014</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.329824870109235</v>
+        <v>4.317812521715609</v>
       </c>
       <c r="C21">
-        <v>1.025263013801691</v>
+        <v>1.11835193620081</v>
       </c>
       <c r="D21">
-        <v>0.04756998496660003</v>
+        <v>0.06381201664007818</v>
       </c>
       <c r="E21">
-        <v>0.04130219076024755</v>
+        <v>0.0396551753320793</v>
       </c>
       <c r="F21">
-        <v>1.18277292131782</v>
+        <v>0.9318788855689206</v>
       </c>
       <c r="G21">
-        <v>1.070365072177395</v>
+        <v>0.9277093492536324</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.006649335000812329</v>
+        <v>0.006153733754075574</v>
       </c>
       <c r="J21">
-        <v>0.6310905542556355</v>
+        <v>0.4054398646693897</v>
       </c>
       <c r="K21">
-        <v>0.5211057231477056</v>
+        <v>0.3631682080905634</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1607203732815279</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.126440035445885</v>
       </c>
       <c r="N21">
-        <v>0.2388657666998171</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7250824470127029</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2468316000731505</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7287960459372087</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.652279557817735</v>
+        <v>4.635062379428007</v>
       </c>
       <c r="C22">
-        <v>1.092362664126824</v>
+        <v>1.183477758285932</v>
       </c>
       <c r="D22">
-        <v>0.04865342137571105</v>
+        <v>0.06912533163714585</v>
       </c>
       <c r="E22">
-        <v>0.04086876432337672</v>
+        <v>0.03912529618801752</v>
       </c>
       <c r="F22">
-        <v>1.257900505359203</v>
+        <v>0.9532630576272254</v>
       </c>
       <c r="G22">
-        <v>1.139611795188245</v>
+        <v>1.032681226152931</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.00913780111617335</v>
+        <v>0.007861360106838688</v>
       </c>
       <c r="J22">
-        <v>0.6582602341693757</v>
+        <v>0.3374102026886021</v>
       </c>
       <c r="K22">
-        <v>0.5364464696045275</v>
+        <v>0.3520380906189686</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1527886353711523</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1288387435989513</v>
       </c>
       <c r="N22">
-        <v>0.254182524684893</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7788651482425806</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.261853001039654</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.781868910597737</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.480290706549965</v>
+        <v>4.465973839176399</v>
       </c>
       <c r="C23">
-        <v>1.053362362536433</v>
+        <v>1.147781111938514</v>
       </c>
       <c r="D23">
-        <v>0.0478345336944912</v>
+        <v>0.06554007674794349</v>
       </c>
       <c r="E23">
-        <v>0.04109576697905171</v>
+        <v>0.03941736171078425</v>
       </c>
       <c r="F23">
-        <v>1.222467927216286</v>
+        <v>0.9510442236270507</v>
       </c>
       <c r="G23">
-        <v>1.107855082139679</v>
+        <v>0.9725655786853622</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.007478461200810749</v>
+        <v>0.006589330319460629</v>
       </c>
       <c r="J23">
-        <v>0.6463911457427969</v>
+        <v>0.3873699345188442</v>
       </c>
       <c r="K23">
-        <v>0.5316105490061176</v>
+        <v>0.3627769003836008</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1586198895386346</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1295341625259567</v>
       </c>
       <c r="N23">
-        <v>0.2457506935198808</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7500027316100457</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.253741216863645</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7535109094292096</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831907728955343</v>
+        <v>3.826753297141238</v>
       </c>
       <c r="C24">
-        <v>0.9122876241982283</v>
+        <v>1.006157558749038</v>
       </c>
       <c r="D24">
-        <v>0.04514780964325382</v>
+        <v>0.05538008542738027</v>
       </c>
       <c r="E24">
-        <v>0.04199898551129877</v>
+        <v>0.04045056893822441</v>
       </c>
       <c r="F24">
-        <v>1.084692695778912</v>
+        <v>0.9080908308232125</v>
       </c>
       <c r="G24">
-        <v>0.9831165122132433</v>
+        <v>0.7941762413061042</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.00307412634759352</v>
+        <v>0.003196713108978066</v>
       </c>
       <c r="J24">
-        <v>0.5992702140174089</v>
+        <v>0.5225283094215172</v>
       </c>
       <c r="K24">
-        <v>0.5097963445956211</v>
+        <v>0.3875344818033852</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1758683764563607</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1260170259825166</v>
       </c>
       <c r="N24">
-        <v>0.2149487889282682</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6417156493152802</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2232377657017679</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.64623629995193</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.138144967007065</v>
+        <v>3.139459464921458</v>
       </c>
       <c r="C25">
-        <v>0.7626119134004341</v>
+        <v>0.8318202047618115</v>
       </c>
       <c r="D25">
-        <v>0.04228053428501966</v>
+        <v>0.04905796388361239</v>
       </c>
       <c r="E25">
-        <v>0.04305200281995925</v>
+        <v>0.04127601906525857</v>
       </c>
       <c r="F25">
-        <v>0.9442163499850409</v>
+        <v>0.8072260839838634</v>
       </c>
       <c r="G25">
-        <v>0.8566751614595489</v>
+        <v>0.6969209085376633</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001102976785247733</v>
+        <v>0.001395857750325469</v>
       </c>
       <c r="J25">
-        <v>0.5528125671019808</v>
+        <v>0.5051431988299839</v>
       </c>
       <c r="K25">
-        <v>0.4903669700029312</v>
+        <v>0.3894829331796785</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1855605739750175</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1146008542642214</v>
       </c>
       <c r="N25">
-        <v>0.1831497836807614</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.526333584331546</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1902007828984864</v>
       </c>
       <c r="Q25">
+        <v>0.5304031527707593</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
